--- a/companies_glossary/Verbs.xlsx
+++ b/companies_glossary/Verbs.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -8999,7 +8999,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9299,7 +9299,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10859,7 +10859,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -10889,7 +10889,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11189,7 +11189,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12269,7 +12269,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12509,7 +12509,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12869,7 +12869,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -12989,7 +12989,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13019,7 +13019,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -13439,7 +13439,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13799,7 +13799,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14009,7 +14009,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14129,7 +14129,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14309,7 +14309,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14399,7 +14399,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14459,7 +14459,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14939,7 +14939,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15089,7 +15089,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15149,7 +15149,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15239,7 +15239,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15299,7 +15299,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -15389,7 +15389,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15629,7 +15629,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15749,7 +15749,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15839,7 +15839,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16079,7 +16079,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16259,7 +16259,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16349,7 +16349,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16439,7 +16439,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16679,7 +16679,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17039,7 +17039,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17399,7 +17399,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17459,7 +17459,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17519,7 +17519,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17549,7 +17549,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17939,7 +17939,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -17969,7 +17969,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18089,7 +18089,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18119,7 +18119,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18149,7 +18149,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18269,7 +18269,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18359,7 +18359,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -18449,7 +18449,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18509,7 +18509,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18659,7 +18659,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -18719,7 +18719,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -18869,7 +18869,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18929,7 +18929,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -18959,7 +18959,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19109,7 +19109,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19169,7 +19169,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19199,7 +19199,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19229,7 +19229,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19259,7 +19259,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19319,7 +19319,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19379,7 +19379,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19409,7 +19409,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -19499,7 +19499,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19589,7 +19589,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19619,7 +19619,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19679,7 +19679,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19709,7 +19709,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19739,7 +19739,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19859,7 +19859,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19949,7 +19949,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -19979,7 +19979,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20069,7 +20069,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20099,7 +20099,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20249,7 +20249,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20309,7 +20309,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20399,7 +20399,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20489,7 +20489,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -20549,7 +20549,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20579,7 +20579,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20609,7 +20609,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20669,7 +20669,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20759,7 +20759,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20819,7 +20819,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20939,7 +20939,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21149,7 +21149,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -21179,7 +21179,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21239,7 +21239,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -21269,7 +21269,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21299,7 +21299,7 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21359,7 +21359,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -21389,7 +21389,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21449,7 +21449,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21599,7 +21599,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21659,7 +21659,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21689,7 +21689,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -21749,7 +21749,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -21839,7 +21839,7 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -21929,7 +21929,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -22049,7 +22049,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22079,7 +22079,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22139,7 +22139,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22169,7 +22169,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -22199,7 +22199,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22229,7 +22229,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22289,7 +22289,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22319,7 +22319,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22469,7 +22469,7 @@
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22499,7 +22499,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22529,7 +22529,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22559,7 +22559,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -22619,7 +22619,7 @@
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22829,7 +22829,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22949,7 +22949,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -22979,7 +22979,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -23009,7 +23009,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23039,7 +23039,7 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23069,7 +23069,7 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23159,7 +23159,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23219,7 +23219,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23249,7 +23249,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23429,7 +23429,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23489,7 +23489,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23519,7 +23519,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23579,7 +23579,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -23639,7 +23639,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -23729,7 +23729,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23759,7 +23759,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23819,7 +23819,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23849,7 +23849,7 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23909,7 +23909,7 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23939,7 +23939,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -23969,7 +23969,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24059,7 +24059,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24149,7 +24149,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24239,7 +24239,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -24269,7 +24269,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24299,7 +24299,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24329,7 +24329,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24419,7 +24419,7 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24449,7 +24449,7 @@
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24479,7 +24479,7 @@
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24509,7 +24509,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24539,7 +24539,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24569,7 +24569,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24599,7 +24599,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -24659,7 +24659,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24689,7 +24689,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24719,7 +24719,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24809,7 +24809,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24839,7 +24839,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24869,7 +24869,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24929,7 +24929,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -24959,7 +24959,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25019,7 +25019,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25109,7 +25109,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25139,7 +25139,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25289,7 +25289,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25319,7 +25319,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25349,7 +25349,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25379,7 +25379,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25409,7 +25409,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25439,7 +25439,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25529,7 +25529,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>VBP</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25589,7 +25589,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25619,7 +25619,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25679,7 +25679,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25709,7 +25709,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25739,7 +25739,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25769,7 +25769,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25829,7 +25829,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25859,7 +25859,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25889,7 +25889,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25919,7 +25919,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -25979,7 +25979,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -26009,7 +26009,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -26099,7 +26099,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>VBN</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -26219,7 +26219,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>VBD</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -26279,7 +26279,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -26309,7 +26309,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -26369,7 +26369,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>VBZ</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
